--- a/ProyectoFinal/vistas/Alumnos.xlsx
+++ b/ProyectoFinal/vistas/Alumnos.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
   <si>
     <t>Nombre</t>
   </si>
@@ -95,61 +95,58 @@
     <t>M</t>
   </si>
   <si>
-    <t>1234555</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>40269737</t>
-  </si>
-  <si>
-    <t>42578920</t>
-  </si>
-  <si>
-    <t>58792521</t>
-  </si>
-  <si>
     <t>40245737</t>
   </si>
   <si>
-    <t>65984627</t>
-  </si>
-  <si>
-    <t>58772521</t>
-  </si>
-  <si>
     <t>Raul</t>
   </si>
   <si>
     <t>Gomez</t>
   </si>
   <si>
-    <t>Lacha</t>
-  </si>
-  <si>
-    <t>Gar</t>
-  </si>
-  <si>
-    <t>11111111</t>
-  </si>
-  <si>
-    <t>Jorge</t>
-  </si>
-  <si>
-    <t>ajasdjp</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>654</t>
-  </si>
-  <si>
-    <t>54645</t>
+    <t>Aguirre</t>
+  </si>
+  <si>
+    <t>Martha</t>
+  </si>
+  <si>
+    <t>Sanchez</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>31546785</t>
+  </si>
+  <si>
+    <t>31246754</t>
+  </si>
+  <si>
+    <t>31542114</t>
+  </si>
+  <si>
+    <t>41231456</t>
+  </si>
+  <si>
+    <t>32235422</t>
+  </si>
+  <si>
+    <t>36514259</t>
+  </si>
+  <si>
+    <t>41234544</t>
+  </si>
+  <si>
+    <t>23145788</t>
+  </si>
+  <si>
+    <t>22457545</t>
+  </si>
+  <si>
+    <t>099154784</t>
   </si>
 </sst>
 </file>
@@ -200,7 +197,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -217,7 +214,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -513,21 +510,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="9.109375" style="1"/>
-    <col min="5" max="5" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="1"/>
+    <col min="5" max="5" width="25.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="1"/>
+    <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -555,7 +553,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -578,7 +576,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
@@ -601,7 +599,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>15</v>
@@ -624,7 +622,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>15</v>
@@ -647,7 +645,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
@@ -670,13 +668,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>21</v>
@@ -685,7 +683,7 @@
         <v>17</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>19</v>
@@ -693,13 +691,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>21</v>
@@ -716,34 +714,29 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D13" s="1" t="s">
-        <v>23</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1"/>
+  <autoFilter ref="A1:G1"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
   </hyperlinks>
